--- a/biology/Zoologie/Carinacea/Carinacea.xlsx
+++ b/biology/Zoologie/Carinacea/Carinacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carinacea sont une infra-classe d'oursins au sein de la sous-classe des oursins modernes (Euechinoidea).
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette infra-classe a été établie par Andreas Kroh (d) et Andrew Benjamin Smith (d) en 2010 pour réunir tous les oursins réguliers à dents incurvées ; les irregularia en seraient de proches dérivés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette infra-classe a été établie par Andreas Kroh (d) et Andrew Benjamin Smith (d) en 2010 pour réunir tous les oursins réguliers à dents incurvées ; les irregularia en seraient de proches dérivés.
 Ce groupe contient la grande majorité des oursins réguliers actuels : les seuls groupes abondants à faible profondeur n'en faisant pas partie sont les Diadematidae et les Echinothuriidae.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (13 avril 2022)[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (13 avril 2022) : 
 Super-ordre Calycina Gregory, 1900 
 Ordre Phymosomatoida Mortensen, 1904 †
 Super-ordre Echinacea Claus, 1876
